--- a/项目进度安排/游戏.xlsx
+++ b/项目进度安排/游戏.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GameProject\项目进度安排\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK\GameProject\项目进度安排\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>项</t>
   </si>
@@ -264,6 +264,26 @@
   </si>
   <si>
     <t>代码协作管理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xml解析库</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析xml配置文件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础打印及日志</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制print输出</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -475,14 +495,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,8 +507,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -559,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,7 +614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,11 +823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -841,17 +861,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -861,13 +881,13 @@
         <v>71</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>69</v>
       </c>
@@ -875,13 +895,13 @@
         <v>72</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -889,13 +909,13 @@
         <v>73</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -909,7 +929,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -919,7 +939,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -931,7 +951,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
@@ -941,7 +961,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
@@ -965,7 +985,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -977,7 +997,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -987,7 +1007,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1017,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1009,88 +1029,90 @@
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1101,22 +1123,22 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
-        <v>21</v>
+      <c r="A23" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>30</v>
@@ -1131,7 +1153,7 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1146,17 +1168,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="H25" s="6"/>
@@ -1165,16 +1183,12 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="H26" s="6"/>
@@ -1183,81 +1197,93 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
+      <c r="A27" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
+      <c r="A32" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1265,31 +1291,25 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A34" s="14"/>
       <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1297,90 +1317,96 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>48</v>
+      <c r="A36" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
-        <v>36</v>
+      <c r="A37" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="10" t="s">
-        <v>51</v>
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="6"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="9"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1389,21 +1415,23 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
+      <c r="A44" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1413,11 +1441,9 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="A45" s="16"/>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1427,129 +1453,155 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
+      <c r="A47" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="B47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="A48" s="16"/>
       <c r="B48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="14"/>
+      <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="3" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="12" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="13" t="s">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="16"/>
+      <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="16"/>
+      <c r="B57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A55:A57"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A54:F54"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A20"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度安排/游戏.xlsx
+++ b/项目进度安排/游戏.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>项</t>
   </si>
@@ -284,6 +284,26 @@
   </si>
   <si>
     <t>控制print输出</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程封装</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持对象内方法回调</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只封装了win</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁封装</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动加解锁</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -498,6 +518,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,9 +528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,11 +843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -871,7 +891,7 @@
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -887,7 +907,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>69</v>
       </c>
@@ -901,7 +921,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1037,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1035,7 +1055,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1069,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>74</v>
       </c>
@@ -1065,7 +1085,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>77</v>
       </c>
@@ -1081,68 +1101,74 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1153,22 +1179,22 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
-        <v>21</v>
+      <c r="A25" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -1197,18 +1223,14 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>32</v>
+      <c r="A27" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="H27" s="6"/>
@@ -1219,14 +1241,10 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="H28" s="6"/>
@@ -1235,81 +1253,93 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
+      <c r="A29" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1317,31 +1347,25 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A37" s="16"/>
       <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1349,90 +1373,96 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>48</v>
+      <c r="A38" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
-        <v>36</v>
+      <c r="A39" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="10" t="s">
-        <v>51</v>
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="9"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1441,21 +1471,23 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
+      <c r="A46" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1465,11 +1497,9 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1479,129 +1509,155 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="13" t="s">
-        <v>18</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
       <c r="B50" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
       <c r="B51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
+      <c r="B53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="3" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="16" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="13"/>
+      <c r="B58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="13"/>
+      <c r="B59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A56:F56"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
